--- a/testdata/Userdetails.xlsx
+++ b/testdata/Userdetails.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
   <si>
     <t>name</t>
   </si>
@@ -140,6 +140,24 @@
   </si>
   <si>
     <t>24632939305</t>
+  </si>
+  <si>
+    <t>I29CD</t>
+  </si>
+  <si>
+    <t>I29CD@gmail.com</t>
+  </si>
+  <si>
+    <t>96443267181</t>
+  </si>
+  <si>
+    <t>Jwh1w</t>
+  </si>
+  <si>
+    <t>Jwh1w@gmail.com</t>
+  </si>
+  <si>
+    <t>58197724179</t>
   </si>
 </sst>
 </file>
@@ -529,13 +547,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
